--- a/SWMM_inp/강우사상_1000개.xlsx
+++ b/SWMM_inp/강우사상_1000개.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\정주영\Desktop\2024-2\종합설계\코드\ConvLSTM2D-main\SWMM_inp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\정주영\Desktop\2024-2\종합설계\강우자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="18950" windowHeight="5920"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="14110" windowHeight="5880"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -21,40 +21,76 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="38">
   <x:si>
-    <x:t>관악(레)</x:t>
+    <x:t>송파</x:t>
   </x:si>
   <x:si>
-    <x:t>송파</x:t>
+    <x:t>관악</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성북</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서초</x:t>
   </x:si>
   <x:si>
     <x:t>중랑</x:t>
   </x:si>
   <x:si>
-    <x:t>강동</x:t>
+    <x:t>기상청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동대문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도봉</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이양</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영등포</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판문점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설악동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한강</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>용산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구로</x:t>
   </x:si>
   <x:si>
     <x:t>함라</x:t>
   </x:si>
   <x:si>
-    <x:t>서초</x:t>
+    <x:t>창수</x:t>
   </x:si>
   <x:si>
     <x:t>강남</x:t>
   </x:si>
   <x:si>
-    <x:t>설악동</x:t>
+    <x:t>용문산</x:t>
   </x:si>
   <x:si>
-    <x:t>노원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도봉</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마포</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기상청</x:t>
+    <x:t>은평</x:t>
   </x:si>
   <x:si>
     <x:t>양천</x:t>
@@ -63,76 +99,40 @@
     <x:t>강북</x:t>
   </x:si>
   <x:si>
-    <x:t>동대문</x:t>
+    <x:t>현충원</x:t>
   </x:si>
   <x:si>
-    <x:t>이양</x:t>
+    <x:t>북악산</x:t>
   </x:si>
   <x:si>
-    <x:t>성북</x:t>
+    <x:t>마포</x:t>
   </x:si>
   <x:si>
-    <x:t>강서</x:t>
+    <x:t>남현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김포장기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10분 간격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUMBER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REGION</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관악(레)</x:t>
   </x:si>
   <x:si>
     <x:t>DATE</x:t>
   </x:si>
   <x:si>
-    <x:t>김포장기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NUMBER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10분 간격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>REGION</x:t>
-  </x:si>
-  <x:si>
     <x:t>RAINFALL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관악</x:t>
-  </x:si>
-  <x:si>
-    <x:t>북악산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>용문산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영등포</x:t>
-  </x:si>
-  <x:si>
-    <x:t>창수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>은평</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한강</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판문점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현충원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>용산</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -917,15 +917,15 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:ALM31"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="ALB1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="ALM11" activeCellId="0" sqref="A11:ALM23"/>
+    <x:sheetView tabSelected="1" topLeftCell="ALF1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="ALM10" activeCellId="0" sqref="ALM10:ALM10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="20.796875" defaultRowHeight="16.39999999999999857891"/>
   <x:sheetData>
     <x:row r="1" spans="1:1001">
       <x:c r="A1" t="s">
-        <x:v>20</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B1">
         <x:v>1</x:v>
@@ -3930,206 +3930,206 @@
     </x:row>
     <x:row r="2" spans="1:801">
       <x:c r="A2" t="s">
-        <x:v>22</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="J2" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K2" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="AI2" s="1"/>
       <x:c r="AJ2" s="1"/>
       <x:c r="AK2" s="1"/>
       <x:c r="AL2" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="AM2" s="1"/>
       <x:c r="AN2" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="AO2" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="AP2" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="AQ2" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="AR2" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="AS2" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="AT2" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="AU2" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="AR2" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="AS2" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="AT2" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="AU2" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="AV2" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="AW2" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="AX2" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AY2" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="AZ2" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="BA2" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="BB2" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="BC2" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="BD2" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="BE2" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="BF2" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="BG2" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="BH2" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="BI2" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="BJ2" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="BK2" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="BL2" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="BM2" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="BN2" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="BO2" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="BP2" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="BQ2" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="BR2" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="BS2" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="BT2" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="BU2" s="3" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="BV2" s="3" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="BW2" s="3" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="BX2" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="BY2" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BZ2" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CA2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="CB2" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="CC2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="CD2" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="CE2" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="CF2" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="CG2" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="CH2" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="CI2" s="3" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="CJ2" s="3" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="CK2" s="3" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="CL2" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="CM2" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="CN2" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="CO2" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AY2" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="AZ2" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="BA2" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="BB2" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="BC2" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="BD2" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="BE2" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="BF2" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="BG2" s="1" t="s">
+      <x:c r="CP2" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CQ2" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CR2" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="CS2" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="CT2" s="3" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="BH2" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="BI2" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="BJ2" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="BK2" s="1" t="s">
+      <x:c r="CU2" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="CV2" s="3" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="BL2" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="BM2" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="BN2" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="BO2" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="BP2" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="BQ2" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="BR2" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="BS2" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="BT2" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="BU2" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="BV2" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="BW2" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="BX2" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="BY2" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BZ2" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="CA2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="CB2" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="CC2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="CD2" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="CE2" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="CF2" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="CG2" s="3" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="CH2" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="CI2" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="CJ2" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="CK2" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="CL2" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="CM2" s="3" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="CN2" s="3" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="CO2" s="3" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="CP2" s="3" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="CQ2" s="3" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="CR2" s="3" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="CS2" s="3" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="CT2" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="CU2" s="3" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="CV2" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
       <x:c r="CW2" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="ZZ2" s="1"/>
       <x:c r="AAA2" s="1"/>
@@ -4139,125 +4139,125 @@
       <x:c r="AAE2" s="1"/>
       <x:c r="AAF2" s="1"/>
       <x:c r="AAG2" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="AAH2" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="AAI2" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="AAJ2" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="AAK2" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="AAL2" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="AAM2" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="AAN2" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="AAO2" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AAP2" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="AAQ2" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="AAR2" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="AAS2" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="AAT2" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="AAS2" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="AAT2" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
       <x:c r="AAU2" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="AAV2" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="AAW2" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="AAX2" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="AAY2" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="AAZ2" s="1"/>
       <x:c r="ABA2" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="ABB2" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="ABC2" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="ABD2" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="ABE2" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="ABF2" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="ABG2" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="ABH2" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="ABI2" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="ABJ2" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="ABK2" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="ABL2" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="ABM2" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="ABN2" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="ABO2" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="ABP2" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="ABQ2" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="ABR2" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="ABS2" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="ABT2" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="ABU2" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="ABV2" s="3" t="s">
         <x:v>3</x:v>
@@ -4290,135 +4290,135 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="ACF2" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="ACG2" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="ACH2" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="ACI2" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="ACJ2" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="ACK2" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="ACL2" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="ACM2" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="ACN2" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="ACO2" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="ACP2" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="ACQ2" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="ACR2" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="ACS2" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="ACT2" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="ACU2" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="ACV2" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="ACW2" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="ACX2" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="ACY2" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="ACZ2" s="3" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="ACU2" s="3" t="s">
+      <x:c r="ADA2" s="3" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="ACV2" s="3" t="s">
+      <x:c r="ADB2" s="3" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="ACW2" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="ACX2" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="ACY2" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="ACZ2" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="ADA2" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="ADB2" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
       <x:c r="ADC2" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="ADD2" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="ADE2" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="ADF2" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="ADG2" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="ADH2" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="ADI2" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="ADJ2" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="ADK2" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="ADL2" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="ADM2" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="ADN2" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="ADO2" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="ADP2" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="ADQ2" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="ADR2" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="ADS2" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="ADT2" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="ADU2" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1001">
       <x:c r="A3" t="s">
-        <x:v>18</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B3" s="2">
         <x:v>40751.291666666657</x:v>
@@ -7423,7 +7423,7 @@
     </x:row>
     <x:row r="4" spans="1:1001">
       <x:c r="A4" t="s">
-        <x:v>23</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B4" s="1">
         <x:v>7</x:v>
@@ -10423,12 +10423,12 @@
         <x:v>3.5</x:v>
       </x:c>
       <x:c r="ALM4" s="1">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1001">
       <x:c r="A5" t="s">
-        <x:v>21</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B5" s="1">
         <x:v>4.5</x:v>
@@ -13428,7 +13428,7 @@
         <x:v>2.5</x:v>
       </x:c>
       <x:c r="ALM5" s="1">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:1001">
@@ -16430,7 +16430,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="ALM6" s="1">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:1001">
@@ -19432,7 +19432,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="ALM7" s="1">
-        <x:v>4.5</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:1001">
@@ -22434,7 +22434,7 @@
         <x:v>0.5</x:v>
       </x:c>
       <x:c r="ALM8" s="1">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:1001">
@@ -25436,7 +25436,7 @@
         <x:v>19.5</x:v>
       </x:c>
       <x:c r="ALM9" s="1">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="11:71">
